--- a/web/feedstocks/fixtures/import-intrants-biomethane.xlsx
+++ b/web/feedstocks/fixtures/import-intrants-biomethane.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10208"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yohann/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yohann/Documents/Projets/YomiCode/CarbuRe/carbure/web/feedstocks/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89D8558-86E5-5640-8DB0-83BF095656F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDF6005-14EA-5C4C-8262-D2A5714296D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="1480" windowWidth="27240" windowHeight="16440" xr2:uid="{CED13A77-16D8-5E4B-B1C7-A722F681FD6F}"/>
+    <workbookView xWindow="2420" yWindow="1420" windowWidth="26820" windowHeight="16160" xr2:uid="{CED13A77-16D8-5E4B-B1C7-A722F681FD6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Classifications" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="125">
-  <si>
-    <t>Code affichage</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="180">
   <si>
     <t>Residues</t>
   </si>
@@ -92,19 +89,12 @@
     <t>Produits</t>
   </si>
   <si>
-    <t xml:space="preserve">Cultures principales
-</t>
-  </si>
-  <si>
     <t>Cultures riches en amidon</t>
   </si>
   <si>
     <t>Mais</t>
   </si>
   <si>
-    <t>Mais - 1G</t>
-  </si>
-  <si>
     <t>Cultures oléagineuses</t>
   </si>
   <si>
@@ -123,24 +113,12 @@
     <t>Orge</t>
   </si>
   <si>
-    <t>Cultures intermédiaires</t>
-  </si>
-  <si>
-    <t>Mais - CIVE</t>
-  </si>
-  <si>
     <t>Biomasse agricole - Non alimentaire</t>
   </si>
   <si>
     <t>Cultures herbacées</t>
   </si>
   <si>
-    <t>Silphie</t>
-  </si>
-  <si>
-    <t>Herbe</t>
-  </si>
-  <si>
     <t>Déchets</t>
   </si>
   <si>
@@ -165,15 +143,9 @@
     <t>Résidus de champ / résidus de récolte (à l’exclusion de la paille)</t>
   </si>
   <si>
-    <t>Résidus de grandes cultures : menues pailles, fanes, mâles de maïs semence…</t>
-  </si>
-  <si>
     <t>Cultures endommagées impropres à la consommation humaine ou animale</t>
   </si>
   <si>
-    <t>Refus de silo d’ensilage, refus de ration, enrubannage et foin déclassé…</t>
-  </si>
-  <si>
     <t>Déchets de récolte agricoles</t>
   </si>
   <si>
@@ -222,21 +194,12 @@
     <t>Biodéchets non triés à la source issus du tri mécano biologique</t>
   </si>
   <si>
-    <t>Biodéchets non triés à la source issus du déconditionnement</t>
-  </si>
-  <si>
     <t>Déchets commerciaux/biologiques (secteur commerce/services)</t>
   </si>
   <si>
     <t>Huiles alimentaires usagées</t>
   </si>
   <si>
-    <t>Huiles alimentaires usagées
-- d'origine animale
-- d'origine végétale
-- d'origine non-spécifiée</t>
-  </si>
-  <si>
     <t>Déchets alimentaires</t>
   </si>
   <si>
@@ -258,15 +221,9 @@
     <t>Autres déchets de STEP urbaine</t>
   </si>
   <si>
-    <t>Graisses animales de l’équarrissage (catégories 1/2/3)</t>
-  </si>
-  <si>
     <t>Graisses d'abattoir</t>
   </si>
   <si>
-    <t>Sous-produit animal (Catégorie 1/2/3)</t>
-  </si>
-  <si>
     <t>Autres déchets d’abattoir (résidus animaux (non gras) Catégorie 1)</t>
   </si>
   <si>
@@ -285,9 +242,6 @@
     <t>Déchets de viandes</t>
   </si>
   <si>
-    <t>huiles et matières grasses (avec produits animaux)</t>
-  </si>
-  <si>
     <t>Produits carnés non consommés/invendus</t>
   </si>
   <si>
@@ -327,9 +281,6 @@
     <t>Industrie agroalimentaire</t>
   </si>
   <si>
-    <t>Glycérine animale</t>
-  </si>
-  <si>
     <t>Glycérine végétale</t>
   </si>
   <si>
@@ -357,9 +308,6 @@
     <t>Drêches et vinasse de lies de vin</t>
   </si>
   <si>
-    <t>Marc / jus de distillerie</t>
-  </si>
-  <si>
     <t>Déchets de céréales et oléoprotéagineux (séchage, stockage, tri…)</t>
   </si>
   <si>
@@ -402,9 +350,6 @@
     <t>Biogaz capté d'une ISDND</t>
   </si>
   <si>
-    <t>Fraction de la biomasse ISDND</t>
-  </si>
-  <si>
     <t>Groupe</t>
   </si>
   <si>
@@ -415,13 +360,229 @@
   </si>
   <si>
     <t>Intrant</t>
+  </si>
+  <si>
+    <t>Biomasse agricole - Cultures pour alimentaiton humaine ou animale (principales)</t>
+  </si>
+  <si>
+    <t>Cultures riches en sucre</t>
+  </si>
+  <si>
+    <t>Autres cultures</t>
+  </si>
+  <si>
+    <t>Biomasse agricole - Cultures intermédiaires</t>
+  </si>
+  <si>
+    <t>Graisses animales de l’équarrissage catégories 1</t>
+  </si>
+  <si>
+    <t>Graisses animales de l’équarrissage catégories 2</t>
+  </si>
+  <si>
+    <t>Graisses animales de l’équarrissage catégories 3</t>
+  </si>
+  <si>
+    <t>Sous-produit animal (Catégorie 1)</t>
+  </si>
+  <si>
+    <t>Sous-produit animal (Catégorie 2)</t>
+  </si>
+  <si>
+    <t>Autres déchets d’abattoir (résidus animaux (non gras) Catégorie 2)</t>
+  </si>
+  <si>
+    <t>Sous-produit animal (Catégorie 3)</t>
+  </si>
+  <si>
+    <t>Autres déchets d’abattoir (résidus animaux (non gras) Catégorie 3)</t>
+  </si>
+  <si>
+    <t>Graisses animales de l’équarrissage (catégories 1)</t>
+  </si>
+  <si>
+    <t>Graisses animales de l’équarrissage (catégories 2)</t>
+  </si>
+  <si>
+    <t>Graisses animales de l’équarrissage (catégories 3)</t>
+  </si>
+  <si>
+    <t>Déchet industriel</t>
+  </si>
+  <si>
+    <t>Distillats d'alcool</t>
+  </si>
+  <si>
+    <t>Aquaculture</t>
+  </si>
+  <si>
+    <t>Aquaculture &gt; Cultures aquatiques</t>
+  </si>
+  <si>
+    <t>Résidus de processus</t>
+  </si>
+  <si>
+    <t>Résidus de processus - Coques et dérivés</t>
+  </si>
+  <si>
+    <t>Résidus agricoles de champ / résidus de récolte</t>
+  </si>
+  <si>
+    <t>matériau cellulosique non alimentaire</t>
+  </si>
+  <si>
+    <t>Sylviculture et industrie forestière</t>
+  </si>
+  <si>
+    <t>Industrie papetière</t>
+  </si>
+  <si>
+    <t>Agroalimentaire</t>
+  </si>
+  <si>
+    <t>Résidus de distillation d'alcools</t>
+  </si>
+  <si>
+    <t>Soja</t>
+  </si>
+  <si>
+    <t>Tournesol</t>
+  </si>
+  <si>
+    <t>Huile de palme</t>
+  </si>
+  <si>
+    <t>Carinata</t>
+  </si>
+  <si>
+    <t>Blé</t>
+  </si>
+  <si>
+    <t>Betterave</t>
+  </si>
+  <si>
+    <t>Canne à sucre</t>
+  </si>
+  <si>
+    <t>Silphie - Praires permanentes</t>
+  </si>
+  <si>
+    <t>Silphie - Prairies temporaires</t>
+  </si>
+  <si>
+    <t>Herbe - Praires permanentes</t>
+  </si>
+  <si>
+    <t>Herbe - Praires temporaires</t>
+  </si>
+  <si>
+    <t>Résidus de grandes cultures</t>
+  </si>
+  <si>
+    <t>Autres résidus</t>
+  </si>
+  <si>
+    <t>Refus de silo d’ensilage</t>
+  </si>
+  <si>
+    <t>Refus de ration, enrubannage et foin déclassé…</t>
+  </si>
+  <si>
+    <t>Soupes de biodéchets issus du déconditionnement</t>
+  </si>
+  <si>
+    <t>Huiles alimentaires usagées d'origine animale</t>
+  </si>
+  <si>
+    <t>Huiles alimentaires usagées d'origine végétale</t>
+  </si>
+  <si>
+    <t>Huiles alimentaires usagées d'origine non-spécifiée</t>
+  </si>
+  <si>
+    <t>Huiles et matières grasses (avec produits animaux)</t>
+  </si>
+  <si>
+    <t>Glycérine animale issue de graisse d'équarrissage</t>
+  </si>
+  <si>
+    <t>Marc de raisin</t>
+  </si>
+  <si>
+    <t>Autre marc</t>
+  </si>
+  <si>
+    <t>Résidus de bière</t>
+  </si>
+  <si>
+    <t>Résidus viniques</t>
+  </si>
+  <si>
+    <t>Autres jus de distilleries</t>
+  </si>
+  <si>
+    <t>Ethanol pur de marc de raisin</t>
+  </si>
+  <si>
+    <t>Ethanol pur de lies de vin</t>
+  </si>
+  <si>
+    <t>Algues</t>
+  </si>
+  <si>
+    <t>Amidon résiduel</t>
+  </si>
+  <si>
+    <t>Amidons résiduels déchets</t>
+  </si>
+  <si>
+    <t>Balles (enveloppes)</t>
+  </si>
+  <si>
+    <t>Bagasse</t>
+  </si>
+  <si>
+    <t>Coques</t>
+  </si>
+  <si>
+    <t>Matières cellulosiques d'origine non alimentaire</t>
+  </si>
+  <si>
+    <t>Matières ligno-cellulosiques (Hors grumes de sciage &amp; de placage)</t>
+  </si>
+  <si>
+    <t>Râpes</t>
+  </si>
+  <si>
+    <t>Déchets de bois</t>
+  </si>
+  <si>
+    <t>Brai de tallol</t>
+  </si>
+  <si>
+    <t>Égouts pauvres de 2ème extraction</t>
+  </si>
+  <si>
+    <t>Méthanol brut issu de la pâte kraft obtenue à partir de la pulpe de bois</t>
+  </si>
+  <si>
+    <t>Huiles de fusel</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>is_methanizable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -439,30 +600,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF473821"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF11734B"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFB10202"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF5A3286"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -487,17 +624,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -832,1751 +962,2453 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C854CE-F7D6-9346-B585-BC5C70CEEDF8}">
-  <dimension ref="A1:E1005"/>
+  <dimension ref="A1:F1005"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="34.83203125" customWidth="1"/>
-    <col min="3" max="3" width="44.1640625" customWidth="1"/>
-    <col min="4" max="4" width="60.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" customWidth="1"/>
+    <col min="3" max="3" width="52" customWidth="1"/>
+    <col min="4" max="4" width="93.6640625" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" t="s">
+        <v>140</v>
+      </c>
+      <c r="E25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" t="s">
+        <v>142</v>
+      </c>
+      <c r="E35" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" t="s">
+        <v>143</v>
+      </c>
+      <c r="E36" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" t="s">
+        <v>144</v>
+      </c>
+      <c r="E37" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" t="s">
+        <v>145</v>
+      </c>
+      <c r="E38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" t="s">
+        <v>146</v>
+      </c>
+      <c r="E42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" t="s">
+        <v>147</v>
+      </c>
+      <c r="E43" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" t="s">
+        <v>148</v>
+      </c>
+      <c r="E44" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" t="s">
+        <v>149</v>
+      </c>
+      <c r="E45" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" t="s">
+        <v>40</v>
+      </c>
+      <c r="E47" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" t="s">
+        <v>44</v>
+      </c>
+      <c r="D52" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53" t="s">
+        <v>47</v>
+      </c>
+      <c r="E53" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" t="s">
+        <v>48</v>
+      </c>
+      <c r="D54" t="s">
+        <v>49</v>
+      </c>
+      <c r="E54" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" t="s">
+        <v>50</v>
+      </c>
+      <c r="E55" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56" t="s">
+        <v>51</v>
+      </c>
+      <c r="E56" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57" t="s">
+        <v>150</v>
+      </c>
+      <c r="E57" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58" t="s">
+        <v>151</v>
+      </c>
+      <c r="E58" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" t="s">
+        <v>53</v>
+      </c>
+      <c r="D59" t="s">
+        <v>152</v>
+      </c>
+      <c r="E59" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C60" t="s">
+        <v>53</v>
+      </c>
+      <c r="D60" t="s">
+        <v>153</v>
+      </c>
+      <c r="E60" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C61" t="s">
+        <v>54</v>
+      </c>
+      <c r="D61" t="s">
+        <v>55</v>
+      </c>
+      <c r="E61" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" t="s">
+        <v>54</v>
+      </c>
+      <c r="D62" t="s">
+        <v>56</v>
+      </c>
+      <c r="E62" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63" t="s">
+        <v>57</v>
+      </c>
+      <c r="D63" t="s">
+        <v>58</v>
+      </c>
+      <c r="E63" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>27</v>
+      </c>
+      <c r="B64" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" t="s">
+        <v>57</v>
+      </c>
+      <c r="D64" t="s">
+        <v>59</v>
+      </c>
+      <c r="E64" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>27</v>
+      </c>
+      <c r="B65" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" t="s">
+        <v>57</v>
+      </c>
+      <c r="D65" t="s">
+        <v>60</v>
+      </c>
+      <c r="E65" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" t="s">
+        <v>112</v>
+      </c>
+      <c r="D66" t="s">
+        <v>61</v>
+      </c>
+      <c r="E66" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" t="s">
+        <v>113</v>
+      </c>
+      <c r="D67" t="s">
+        <v>61</v>
+      </c>
+      <c r="E67" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68" t="s">
+        <v>114</v>
+      </c>
+      <c r="D68" t="s">
+        <v>61</v>
+      </c>
+      <c r="E68" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>27</v>
+      </c>
+      <c r="B69" t="s">
+        <v>115</v>
+      </c>
+      <c r="C69" t="s">
+        <v>62</v>
+      </c>
+      <c r="D69" t="s">
+        <v>63</v>
+      </c>
+      <c r="E69" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>27</v>
+      </c>
+      <c r="B70" t="s">
+        <v>116</v>
+      </c>
+      <c r="C70" t="s">
+        <v>117</v>
+      </c>
+      <c r="D70" t="s">
+        <v>63</v>
+      </c>
+      <c r="E70" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71" t="s">
+        <v>118</v>
+      </c>
+      <c r="C71" t="s">
+        <v>119</v>
+      </c>
+      <c r="D71" t="s">
+        <v>63</v>
+      </c>
+      <c r="E71" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>27</v>
+      </c>
+      <c r="B72" t="s">
+        <v>115</v>
+      </c>
+      <c r="C72" t="s">
+        <v>62</v>
+      </c>
+      <c r="D72" t="s">
+        <v>64</v>
+      </c>
+      <c r="E72" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73" t="s">
+        <v>116</v>
+      </c>
+      <c r="C73" t="s">
+        <v>117</v>
+      </c>
+      <c r="D73" t="s">
+        <v>64</v>
+      </c>
+      <c r="E73" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>27</v>
+      </c>
+      <c r="B74" t="s">
+        <v>118</v>
+      </c>
+      <c r="C74" t="s">
+        <v>119</v>
+      </c>
+      <c r="D74" t="s">
+        <v>64</v>
+      </c>
+      <c r="E74" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>27</v>
+      </c>
+      <c r="B75" t="s">
+        <v>115</v>
+      </c>
+      <c r="C75" t="s">
+        <v>62</v>
+      </c>
+      <c r="D75" t="s">
+        <v>65</v>
+      </c>
+      <c r="E75" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>27</v>
+      </c>
+      <c r="B76" t="s">
+        <v>116</v>
+      </c>
+      <c r="C76" t="s">
+        <v>117</v>
+      </c>
+      <c r="D76" t="s">
+        <v>65</v>
+      </c>
+      <c r="E76" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>27</v>
+      </c>
+      <c r="B77" t="s">
+        <v>118</v>
+      </c>
+      <c r="C77" t="s">
+        <v>119</v>
+      </c>
+      <c r="D77" t="s">
+        <v>65</v>
+      </c>
+      <c r="E77" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>27</v>
+      </c>
+      <c r="B78" t="s">
+        <v>52</v>
+      </c>
+      <c r="C78" t="s">
+        <v>54</v>
+      </c>
+      <c r="D78" t="s">
+        <v>66</v>
+      </c>
+      <c r="E78" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>27</v>
+      </c>
+      <c r="B79" t="s">
+        <v>115</v>
+      </c>
+      <c r="D79" t="s">
+        <v>67</v>
+      </c>
+      <c r="E79" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>27</v>
+      </c>
+      <c r="B80" t="s">
+        <v>116</v>
+      </c>
+      <c r="D80" t="s">
+        <v>67</v>
+      </c>
+      <c r="E80" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>27</v>
+      </c>
+      <c r="B81" t="s">
+        <v>118</v>
+      </c>
+      <c r="D81" t="s">
+        <v>67</v>
+      </c>
+      <c r="E81" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>27</v>
+      </c>
+      <c r="B82" t="s">
+        <v>115</v>
+      </c>
+      <c r="D82" t="s">
+        <v>154</v>
+      </c>
+      <c r="E82" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>27</v>
+      </c>
+      <c r="B83" t="s">
+        <v>116</v>
+      </c>
+      <c r="D83" t="s">
+        <v>154</v>
+      </c>
+      <c r="E83" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>27</v>
+      </c>
+      <c r="B84" t="s">
+        <v>118</v>
+      </c>
+      <c r="D84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E84" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>27</v>
+      </c>
+      <c r="B85" t="s">
+        <v>115</v>
+      </c>
+      <c r="D85" t="s">
+        <v>68</v>
+      </c>
+      <c r="E85" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>27</v>
+      </c>
+      <c r="B86" t="s">
+        <v>116</v>
+      </c>
+      <c r="D86" t="s">
+        <v>68</v>
+      </c>
+      <c r="E86" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>27</v>
+      </c>
+      <c r="B87" t="s">
+        <v>118</v>
+      </c>
+      <c r="D87" t="s">
+        <v>68</v>
+      </c>
+      <c r="E87" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>27</v>
+      </c>
+      <c r="B88" t="s">
+        <v>69</v>
+      </c>
+      <c r="D88" t="s">
+        <v>70</v>
+      </c>
+      <c r="E88" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>27</v>
+      </c>
+      <c r="B89" t="s">
+        <v>69</v>
+      </c>
+      <c r="C89" t="s">
+        <v>71</v>
+      </c>
+      <c r="D89" t="s">
+        <v>72</v>
+      </c>
+      <c r="E89" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>27</v>
+      </c>
+      <c r="B90" t="s">
+        <v>115</v>
+      </c>
+      <c r="D90" t="s">
+        <v>73</v>
+      </c>
+      <c r="E90" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>27</v>
+      </c>
+      <c r="B91" t="s">
+        <v>116</v>
+      </c>
+      <c r="D91" t="s">
+        <v>73</v>
+      </c>
+      <c r="E91" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>27</v>
+      </c>
+      <c r="B92" t="s">
+        <v>118</v>
+      </c>
+      <c r="D92" t="s">
+        <v>73</v>
+      </c>
+      <c r="E92" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>27</v>
+      </c>
+      <c r="B93" t="s">
+        <v>115</v>
+      </c>
+      <c r="D93" t="s">
+        <v>74</v>
+      </c>
+      <c r="E93" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>27</v>
+      </c>
+      <c r="B94" t="s">
+        <v>116</v>
+      </c>
+      <c r="D94" t="s">
+        <v>74</v>
+      </c>
+      <c r="E94" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>27</v>
+      </c>
+      <c r="B95" t="s">
+        <v>118</v>
+      </c>
+      <c r="D95" t="s">
+        <v>74</v>
+      </c>
+      <c r="E95" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>27</v>
+      </c>
+      <c r="B96" t="s">
+        <v>120</v>
+      </c>
+      <c r="D96" t="s">
+        <v>75</v>
+      </c>
+      <c r="E96" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>27</v>
+      </c>
+      <c r="B97" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D97" t="s">
+        <v>75</v>
+      </c>
+      <c r="E97" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>27</v>
+      </c>
+      <c r="B98" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D98" t="s">
+        <v>75</v>
+      </c>
+      <c r="E98" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>27</v>
+      </c>
+      <c r="B99" t="s">
+        <v>115</v>
+      </c>
+      <c r="D99" t="s">
+        <v>76</v>
+      </c>
+      <c r="E99" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>27</v>
+      </c>
+      <c r="B100" t="s">
+        <v>116</v>
+      </c>
+      <c r="D100" t="s">
+        <v>76</v>
+      </c>
+      <c r="E100" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>27</v>
+      </c>
+      <c r="B101" t="s">
+        <v>118</v>
+      </c>
+      <c r="D101" t="s">
+        <v>76</v>
+      </c>
+      <c r="E101" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>27</v>
+      </c>
+      <c r="B102" t="s">
+        <v>115</v>
+      </c>
+      <c r="D102" t="s">
+        <v>77</v>
+      </c>
+      <c r="E102" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>27</v>
+      </c>
+      <c r="B103" t="s">
+        <v>116</v>
+      </c>
+      <c r="D103" t="s">
+        <v>77</v>
+      </c>
+      <c r="E103" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>27</v>
+      </c>
+      <c r="B104" t="s">
+        <v>118</v>
+      </c>
+      <c r="D104" t="s">
+        <v>77</v>
+      </c>
+      <c r="E104" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>78</v>
+      </c>
+      <c r="B105" t="s">
+        <v>79</v>
+      </c>
+      <c r="C105" t="s">
+        <v>80</v>
+      </c>
+      <c r="D105" t="s">
+        <v>155</v>
+      </c>
+      <c r="E105" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>78</v>
+      </c>
+      <c r="B106" t="s">
+        <v>79</v>
+      </c>
+      <c r="C106" t="s">
+        <v>80</v>
+      </c>
+      <c r="D106" t="s">
+        <v>81</v>
+      </c>
+      <c r="E106" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>78</v>
+      </c>
+      <c r="B107" t="s">
+        <v>79</v>
+      </c>
+      <c r="C107" t="s">
+        <v>82</v>
+      </c>
+      <c r="D107" t="s">
+        <v>83</v>
+      </c>
+      <c r="E107" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>78</v>
+      </c>
+      <c r="B108" t="s">
+        <v>79</v>
+      </c>
+      <c r="C108" t="s">
+        <v>84</v>
+      </c>
+      <c r="D108" t="s">
+        <v>85</v>
+      </c>
+      <c r="E108" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>27</v>
+      </c>
+      <c r="B109" t="s">
+        <v>52</v>
+      </c>
+      <c r="C109" t="s">
+        <v>54</v>
+      </c>
+      <c r="D109" t="s">
+        <v>86</v>
+      </c>
+      <c r="E109" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>27</v>
+      </c>
+      <c r="B110" t="s">
+        <v>52</v>
+      </c>
+      <c r="C110" t="s">
+        <v>54</v>
+      </c>
+      <c r="D110" t="s">
+        <v>86</v>
+      </c>
+      <c r="E110" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>78</v>
+      </c>
+      <c r="B111" t="s">
+        <v>79</v>
+      </c>
+      <c r="C111" t="s">
+        <v>80</v>
+      </c>
+      <c r="D111" t="s">
+        <v>87</v>
+      </c>
+      <c r="E111" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>78</v>
+      </c>
+      <c r="B112" t="s">
+        <v>79</v>
+      </c>
+      <c r="C112" t="s">
+        <v>80</v>
+      </c>
+      <c r="D112" t="s">
+        <v>88</v>
+      </c>
+      <c r="E112" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>78</v>
+      </c>
+      <c r="B113" t="s">
+        <v>79</v>
+      </c>
+      <c r="C113" t="s">
+        <v>80</v>
+      </c>
+      <c r="D113" t="s">
+        <v>89</v>
+      </c>
+      <c r="E113" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>78</v>
+      </c>
+      <c r="B114" t="s">
+        <v>79</v>
+      </c>
+      <c r="C114" t="s">
+        <v>80</v>
+      </c>
+      <c r="D114" t="s">
+        <v>156</v>
+      </c>
+      <c r="E114" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>78</v>
+      </c>
+      <c r="B115" t="s">
+        <v>79</v>
+      </c>
+      <c r="C115" t="s">
+        <v>80</v>
+      </c>
+      <c r="D115" t="s">
+        <v>157</v>
+      </c>
+      <c r="E115" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>78</v>
+      </c>
+      <c r="B116" t="s">
+        <v>79</v>
+      </c>
+      <c r="C116" t="s">
+        <v>80</v>
+      </c>
+      <c r="D116" t="s">
+        <v>158</v>
+      </c>
+      <c r="E116" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>78</v>
+      </c>
+      <c r="B117" t="s">
+        <v>79</v>
+      </c>
+      <c r="C117" t="s">
+        <v>80</v>
+      </c>
+      <c r="D117" t="s">
+        <v>159</v>
+      </c>
+      <c r="E117" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>78</v>
+      </c>
+      <c r="B118" t="s">
+        <v>79</v>
+      </c>
+      <c r="C118" t="s">
+        <v>80</v>
+      </c>
+      <c r="D118" t="s">
+        <v>160</v>
+      </c>
+      <c r="E118" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>27</v>
+      </c>
+      <c r="B119" t="s">
+        <v>52</v>
+      </c>
+      <c r="C119" t="s">
+        <v>54</v>
+      </c>
+      <c r="D119" t="s">
+        <v>90</v>
+      </c>
+      <c r="E119" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>27</v>
+      </c>
+      <c r="B120" t="s">
+        <v>52</v>
+      </c>
+      <c r="C120" t="s">
+        <v>54</v>
+      </c>
+      <c r="D120" t="s">
+        <v>90</v>
+      </c>
+      <c r="E120" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>27</v>
+      </c>
+      <c r="B121" t="s">
+        <v>52</v>
+      </c>
+      <c r="C121" t="s">
+        <v>54</v>
+      </c>
+      <c r="D121" t="s">
+        <v>91</v>
+      </c>
+      <c r="E121" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>27</v>
+      </c>
+      <c r="B122" t="s">
+        <v>69</v>
+      </c>
+      <c r="C122" t="s">
+        <v>71</v>
+      </c>
+      <c r="D122" t="s">
+        <v>92</v>
+      </c>
+      <c r="E122" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>27</v>
+      </c>
+      <c r="B123" t="s">
+        <v>52</v>
+      </c>
+      <c r="C123" t="s">
+        <v>93</v>
+      </c>
+      <c r="D123" t="s">
+        <v>94</v>
+      </c>
+      <c r="E123" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>27</v>
+      </c>
+      <c r="B124" t="s">
+        <v>52</v>
+      </c>
+      <c r="C124" t="s">
+        <v>54</v>
+      </c>
+      <c r="D124" t="s">
+        <v>95</v>
+      </c>
+      <c r="E124" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>27</v>
+      </c>
+      <c r="B125" t="s">
+        <v>69</v>
+      </c>
+      <c r="C125" t="s">
+        <v>71</v>
+      </c>
+      <c r="D125" t="s">
+        <v>96</v>
+      </c>
+      <c r="E125" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>27</v>
+      </c>
+      <c r="B126" t="s">
+        <v>69</v>
+      </c>
+      <c r="C126" t="s">
+        <v>71</v>
+      </c>
+      <c r="D126" t="s">
+        <v>97</v>
+      </c>
+      <c r="E126" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>27</v>
+      </c>
+      <c r="B127" t="s">
+        <v>69</v>
+      </c>
+      <c r="C127" t="s">
+        <v>71</v>
+      </c>
+      <c r="D127" t="s">
+        <v>98</v>
+      </c>
+      <c r="E127" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>27</v>
+      </c>
+      <c r="B128" t="s">
+        <v>69</v>
+      </c>
+      <c r="C128" t="s">
+        <v>71</v>
+      </c>
+      <c r="D128" t="s">
+        <v>99</v>
+      </c>
+      <c r="E128" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>27</v>
+      </c>
+      <c r="B129" t="s">
+        <v>69</v>
+      </c>
+      <c r="C129" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D129" t="s">
+        <v>123</v>
+      </c>
+      <c r="E129" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>27</v>
+      </c>
+      <c r="B130" t="s">
+        <v>52</v>
+      </c>
+      <c r="D130" t="s">
+        <v>100</v>
+      </c>
+      <c r="E130" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>27</v>
+      </c>
+      <c r="B131" t="s">
+        <v>28</v>
+      </c>
+      <c r="C131" t="s">
+        <v>29</v>
+      </c>
+      <c r="D131" t="s">
+        <v>101</v>
+      </c>
+      <c r="E131" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>27</v>
+      </c>
+      <c r="B132" t="s">
+        <v>69</v>
+      </c>
+      <c r="C132" t="s">
+        <v>71</v>
+      </c>
+      <c r="D132" t="s">
+        <v>102</v>
+      </c>
+      <c r="E132" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>27</v>
+      </c>
+      <c r="B133" t="s">
+        <v>38</v>
+      </c>
+      <c r="C133" t="s">
+        <v>48</v>
+      </c>
+      <c r="D133" t="s">
+        <v>103</v>
+      </c>
+      <c r="E133" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>78</v>
+      </c>
+      <c r="B134" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D134" t="s">
+        <v>161</v>
+      </c>
+      <c r="E134" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>78</v>
+      </c>
+      <c r="B135" t="s">
+        <v>124</v>
+      </c>
+      <c r="D135" t="s">
+        <v>162</v>
+      </c>
+      <c r="E135" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>16</v>
+      </c>
+      <c r="B136" t="s">
+        <v>125</v>
+      </c>
+      <c r="C136" t="s">
+        <v>126</v>
+      </c>
+      <c r="D136" t="s">
+        <v>163</v>
+      </c>
+      <c r="E136" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>16</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1</v>
+      </c>
+      <c r="C137" t="s">
+        <v>127</v>
+      </c>
+      <c r="D137" t="s">
+        <v>164</v>
+      </c>
+      <c r="E137" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="B138" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="C138" t="s">
+        <v>127</v>
+      </c>
+      <c r="D138" t="s">
+        <v>165</v>
+      </c>
+      <c r="E138" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>0</v>
+      </c>
+      <c r="B139" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="C139" t="s">
+        <v>128</v>
+      </c>
+      <c r="D139" t="s">
+        <v>166</v>
+      </c>
+      <c r="E139" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="C140" t="s">
+        <v>127</v>
+      </c>
+      <c r="D140" t="s">
+        <v>167</v>
+      </c>
+      <c r="E140" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>0</v>
+      </c>
+      <c r="B141" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="C141" t="s">
+        <v>129</v>
+      </c>
+      <c r="D141" t="s">
+        <v>168</v>
+      </c>
+      <c r="E141" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>0</v>
+      </c>
+      <c r="B142" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="C142" t="s">
+        <v>130</v>
+      </c>
+      <c r="D142" t="s">
+        <v>169</v>
+      </c>
+      <c r="E142" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B143" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="C143" t="s">
+        <v>130</v>
+      </c>
+      <c r="D143" t="s">
+        <v>170</v>
+      </c>
+      <c r="E143" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="C144" t="s">
+        <v>127</v>
+      </c>
+      <c r="D144" t="s">
+        <v>171</v>
+      </c>
+      <c r="E144" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="B145" t="s">
+        <v>131</v>
+      </c>
+      <c r="D145" t="s">
+        <v>172</v>
+      </c>
+      <c r="E145" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" ht="57" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D54" s="2" t="s">
+      <c r="B146" t="s">
+        <v>79</v>
+      </c>
+      <c r="C146" t="s">
+        <v>132</v>
+      </c>
+      <c r="D146" t="s">
+        <v>173</v>
+      </c>
+      <c r="E146" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
         <v>78</v>
       </c>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D55" s="2" t="s">
+      <c r="B147" t="s">
         <v>79</v>
       </c>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E65" s="2"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E67" s="2"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E69" s="2"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E70" s="2"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E71" s="2"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E72" s="2"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E73" s="2"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E74" s="2"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E75" s="2"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E76" s="2"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E77" s="2"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E78" s="2"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E79" s="2"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E80" s="2"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E81" s="2"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E82" s="2"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E83" s="2"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E84" s="2"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E85" s="2"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E86" s="2"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E87" s="2"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E88" s="2"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" s="2"/>
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" s="2"/>
-      <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" s="2"/>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" s="2"/>
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126" s="2"/>
-      <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" s="2"/>
-      <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" s="2"/>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" s="2"/>
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" s="2"/>
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="2"/>
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" s="2"/>
-      <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" s="2"/>
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138" s="2"/>
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139" s="2"/>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140" s="2"/>
-      <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" s="2"/>
-      <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" s="2"/>
-      <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143" s="2"/>
-      <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144" s="2"/>
-      <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145" s="2"/>
-      <c r="B145" s="2"/>
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" s="2"/>
-      <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
-      <c r="E146" s="2"/>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" s="2"/>
-      <c r="B147" s="2"/>
-      <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
-      <c r="E147" s="2"/>
+      <c r="C147" t="s">
+        <v>133</v>
+      </c>
+      <c r="D147" t="s">
+        <v>174</v>
+      </c>
+      <c r="E147" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148" s="2"/>
-      <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
-      <c r="E148" s="2"/>
+      <c r="A148" t="s">
+        <v>27</v>
+      </c>
+      <c r="D148" t="s">
+        <v>175</v>
+      </c>
+      <c r="E148" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" s="2"/>
-      <c r="B149" s="2"/>
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
+      <c r="A149" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149" t="s">
+        <v>79</v>
+      </c>
+      <c r="C149" t="s">
+        <v>134</v>
+      </c>
+      <c r="D149" t="s">
+        <v>176</v>
+      </c>
+      <c r="E149" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="2"/>

--- a/web/feedstocks/fixtures/import-intrants-biomethane.xlsx
+++ b/web/feedstocks/fixtures/import-intrants-biomethane.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yohann/Documents/Projets/YomiCode/CarbuRe/carbure/web/feedstocks/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDF6005-14EA-5C4C-8262-D2A5714296D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30AFABC-8681-4A45-B6FF-F0BF1FD25DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="1420" windowWidth="26820" windowHeight="16160" xr2:uid="{CED13A77-16D8-5E4B-B1C7-A722F681FD6F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{CED13A77-16D8-5E4B-B1C7-A722F681FD6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Classifications" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="213">
   <si>
     <t>Residues</t>
   </si>
@@ -113,6 +113,9 @@
     <t>Orge</t>
   </si>
   <si>
+    <t>Mais - CIVE</t>
+  </si>
+  <si>
     <t>Biomasse agricole - Non alimentaire</t>
   </si>
   <si>
@@ -221,30 +224,12 @@
     <t>Autres déchets de STEP urbaine</t>
   </si>
   <si>
-    <t>Graisses d'abattoir</t>
-  </si>
-  <si>
     <t>Autres déchets d’abattoir (résidus animaux (non gras) Catégorie 1)</t>
   </si>
   <si>
-    <t>Matières stercoraires</t>
-  </si>
-  <si>
-    <t>Boues de STEP d'abattoir</t>
-  </si>
-  <si>
-    <t>Autres déchets d'abattoirs</t>
-  </si>
-  <si>
     <t>Déchets de poissons et de fruits de mer</t>
   </si>
   <si>
-    <t>Déchets de viandes</t>
-  </si>
-  <si>
-    <t>Produits carnés non consommés/invendus</t>
-  </si>
-  <si>
     <t>Industriel</t>
   </si>
   <si>
@@ -257,21 +242,6 @@
     <t>Graisses de flottation issues du traitement des eaux usées</t>
   </si>
   <si>
-    <t>Autres déchets animaux issus d'IAA</t>
-  </si>
-  <si>
-    <t>Déchets de la préparation de produits laitier et produits laitier non consommés/invendus… (lactoserum, Lait, fromage, caséïne…)</t>
-  </si>
-  <si>
-    <t>Graisses de flottation d’IAA de produits laitiers</t>
-  </si>
-  <si>
-    <t>Boues de STEP de l’IAA de produits laitiers</t>
-  </si>
-  <si>
-    <t>Autres déchets d’IAA de produits laitiers</t>
-  </si>
-  <si>
     <t>Co-produit</t>
   </si>
   <si>
@@ -281,6 +251,9 @@
     <t>Industrie agroalimentaire</t>
   </si>
   <si>
+    <t>Glycérine animale</t>
+  </si>
+  <si>
     <t>Glycérine végétale</t>
   </si>
   <si>
@@ -293,24 +266,12 @@
     <t>Autres</t>
   </si>
   <si>
-    <t>Glycérine</t>
-  </si>
-  <si>
-    <t>Déclassement et déchets de fruits/légumes/tubercules/condiment</t>
-  </si>
-  <si>
     <t>Pulpes de betteraves/radidelles/herbes pressées</t>
   </si>
   <si>
     <t>Mélasse</t>
   </si>
   <si>
-    <t>Drêches et vinasse de lies de vin</t>
-  </si>
-  <si>
-    <t>Déchets de céréales et oléoprotéagineux (séchage, stockage, tri…)</t>
-  </si>
-  <si>
     <t>Déchets de la préparation de produits végétaux et produits végétaux non consommés/invendus (pain, pâtes, barres céréales, confiseries…)</t>
   </si>
   <si>
@@ -476,12 +437,6 @@
     <t>Herbe - Praires temporaires</t>
   </si>
   <si>
-    <t>Résidus de grandes cultures</t>
-  </si>
-  <si>
-    <t>Autres résidus</t>
-  </si>
-  <si>
     <t>Refus de silo d’ensilage</t>
   </si>
   <si>
@@ -500,12 +455,6 @@
     <t>Huiles alimentaires usagées d'origine non-spécifiée</t>
   </si>
   <si>
-    <t>Huiles et matières grasses (avec produits animaux)</t>
-  </si>
-  <si>
-    <t>Glycérine animale issue de graisse d'équarrissage</t>
-  </si>
-  <si>
     <t>Marc de raisin</t>
   </si>
   <si>
@@ -576,6 +525,156 @@
   </si>
   <si>
     <t>is_methanizable</t>
+  </si>
+  <si>
+    <t>Colza - CIVE</t>
+  </si>
+  <si>
+    <t>Sorgho - CIVE</t>
+  </si>
+  <si>
+    <t>Triticale - CIVE</t>
+  </si>
+  <si>
+    <t>Seigle - CIVE</t>
+  </si>
+  <si>
+    <t>Orge - CIVE</t>
+  </si>
+  <si>
+    <t>Autres cultures - CIVE</t>
+  </si>
+  <si>
+    <t>Résidus de cultures</t>
+  </si>
+  <si>
+    <t>Autres résidus de champs / récolte</t>
+  </si>
+  <si>
+    <t>Graisses d'abattoir (Cat 1)</t>
+  </si>
+  <si>
+    <t>Graisses d'abattoir (Cat 2)</t>
+  </si>
+  <si>
+    <t>Graisses d'abattoir (Cat 3)</t>
+  </si>
+  <si>
+    <t>Matières stercoraires (Cat 1)</t>
+  </si>
+  <si>
+    <t>Matières stercoraires (Cat 2)</t>
+  </si>
+  <si>
+    <t>Matières stercoraires (Cat 3)</t>
+  </si>
+  <si>
+    <t>Boues de STEP d'abattoir (Cat 1)</t>
+  </si>
+  <si>
+    <t>Autres déchets d'abattoirs (Cat 1)</t>
+  </si>
+  <si>
+    <t>Autres déchets d'abattoirs (Cat 2)</t>
+  </si>
+  <si>
+    <t>Autres déchets d'abattoirs (Cat 3)</t>
+  </si>
+  <si>
+    <t>Déchets de viandes (Cat 1)</t>
+  </si>
+  <si>
+    <t>Déchets de viandes (Cat 2)</t>
+  </si>
+  <si>
+    <t>Déchets de viandes (Cat 3)</t>
+  </si>
+  <si>
+    <t>Huiles et matières grasses (avec produits animaux) (Cat 1)</t>
+  </si>
+  <si>
+    <t>Huiles et matières grasses (avec produits animaux) (Cat 2)</t>
+  </si>
+  <si>
+    <t>Huiles et matières grasses (avec produits animaux) (Cat 3)</t>
+  </si>
+  <si>
+    <t>Produits carnés non consommés/invendus (Cat 1)</t>
+  </si>
+  <si>
+    <t>Produits carnés non consommés/invendus (Cat 2)</t>
+  </si>
+  <si>
+    <t>Produits carnés non consommés/invendus (Cat 3)</t>
+  </si>
+  <si>
+    <t>Autres déchets animaux issus d'IAA (Cat 1)</t>
+  </si>
+  <si>
+    <t>Autres déchets animaux issus d'IAA (Cat 2)</t>
+  </si>
+  <si>
+    <t>Autres déchets animaux issus d'IAA (Cat 3)</t>
+  </si>
+  <si>
+    <t>Déchets de la préparation de produits laitier et produits laitier non consommés/invendus… (lactoserum, Lait, fromage, caséïne…) (Cat 1)</t>
+  </si>
+  <si>
+    <t>Déchets de la préparation de produits laitier et produits laitier non consommés/invendus… (lactoserum, Lait, fromage, caséïne…) (Cat 2)</t>
+  </si>
+  <si>
+    <t>Déchets de la préparation de produits laitier et produits laitier non consommés/invendus… (lactoserum, Lait, fromage, caséïne…) (Cat 3)</t>
+  </si>
+  <si>
+    <t>Graisses de flottation d’IAA de produits laitiers (Cat 1)</t>
+  </si>
+  <si>
+    <t>Graisses de flottation d’IAA de produits laitiers (Cat 2)</t>
+  </si>
+  <si>
+    <t>Graisses de flottation d’IAA de produits laitiers (Cat 3)</t>
+  </si>
+  <si>
+    <t>Boues de STEP de l’IAA de produits laitiers (Cat 1)</t>
+  </si>
+  <si>
+    <t>Boues de STEP de l’IAA de produits laitiers (Cat 2)</t>
+  </si>
+  <si>
+    <t>Boues de STEP de l’IAA de produits laitiers (Cat 3)</t>
+  </si>
+  <si>
+    <t>Autres déchets d’IAA de produits laitiers (Cat 1)</t>
+  </si>
+  <si>
+    <t>Autres déchets d’IAA de produits laitiers (Cat 2)</t>
+  </si>
+  <si>
+    <t>Autres déchets d’IAA de produits laitiers (Cat 3)</t>
+  </si>
+  <si>
+    <t>Autre glycérine</t>
+  </si>
+  <si>
+    <t>Déclassement de fruits/légumes/tubercules/condiment</t>
+  </si>
+  <si>
+    <t>Déchets de fruits/légumes/tubercules/condiment</t>
+  </si>
+  <si>
+    <t>Lies de vin</t>
+  </si>
+  <si>
+    <t>Déchets de céréales (séchage, stockage, tri…)</t>
+  </si>
+  <si>
+    <t>Déchets oléoprotéagineux (séchage, stockage, tri…)</t>
+  </si>
+  <si>
+    <t>Boues de STEP d'abattoir (Cat 2)</t>
+  </si>
+  <si>
+    <t>Boues de STEP d'abattoir (Cat 3)</t>
   </si>
 </sst>
 </file>
@@ -964,35 +1063,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C854CE-F7D6-9346-B585-BC5C70CEEDF8}">
   <dimension ref="A1:F1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="B53" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="53.83203125" customWidth="1"/>
-    <col min="3" max="3" width="52" customWidth="1"/>
-    <col min="4" max="4" width="93.6640625" customWidth="1"/>
+    <col min="2" max="2" width="73.33203125" customWidth="1"/>
+    <col min="3" max="3" width="56.83203125" customWidth="1"/>
+    <col min="4" max="4" width="112.33203125" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
     <col min="6" max="6" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="F1" s="1"/>
     </row>
@@ -1010,7 +1109,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1027,7 +1126,7 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1044,7 +1143,7 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1061,7 +1160,7 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1078,7 +1177,7 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1095,7 +1194,7 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1112,7 +1211,7 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1129,7 +1228,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1146,7 +1245,7 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1163,7 +1262,7 @@
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1180,7 +1279,7 @@
         <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1197,7 +1296,7 @@
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1205,7 +1304,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -1214,7 +1313,7 @@
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1222,7 +1321,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
@@ -1231,7 +1330,7 @@
         <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1239,16 +1338,16 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="E16" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1256,16 +1355,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="E17" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1273,16 +1372,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E18" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1290,16 +1389,16 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="E19" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1307,7 +1406,7 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
@@ -1316,7 +1415,7 @@
         <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1324,7 +1423,7 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
@@ -1333,7 +1432,7 @@
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1341,7 +1440,7 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C22" t="s">
         <v>17</v>
@@ -1350,7 +1449,7 @@
         <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1358,7 +1457,7 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
         <v>17</v>
@@ -1367,7 +1466,7 @@
         <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1375,16 +1474,16 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C24" t="s">
         <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1392,16 +1491,16 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C25" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D25" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="E25" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1409,16 +1508,16 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C26" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D26" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E26" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1426,16 +1525,16 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C27" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="E27" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1443,16 +1542,16 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
         <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E28" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1460,16 +1559,16 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C29" t="s">
         <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="E29" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1477,16 +1576,16 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C30" t="s">
         <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>21</v>
+        <v>164</v>
       </c>
       <c r="E30" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1494,16 +1593,16 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C31" t="s">
         <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="E31" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1511,16 +1610,16 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s">
         <v>17</v>
       </c>
       <c r="D32" t="s">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="E32" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1528,16 +1627,16 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C33" t="s">
         <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="E33" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1545,16 +1644,16 @@
         <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D34" t="s">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="E34" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1562,16 +1661,16 @@
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D35" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="E35" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1579,16 +1678,16 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D36" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E36" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1596,16 +1695,16 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D37" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="E37" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1613,33 +1712,33 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D38" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E38" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E39" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1650,13 +1749,13 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E40" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1667,13 +1766,13 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E41" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1684,13 +1783,13 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D42" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="E42" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1701,1484 +1800,1484 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D43" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="E43" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D44" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="E44" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B45" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D45" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="E45" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B46" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E46" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D47" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E47" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E48" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C49" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E49" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E50" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E51" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E52" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B53" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E53" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B54" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E54" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B55" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E55" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B56" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D56" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E56" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B57" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D57" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="E57" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D58" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="E58" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B59" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D59" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="E59" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B60" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D60" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="E60" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B61" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E61" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B62" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E62" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D63" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E63" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B64" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D64" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E64" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B65" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C65" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D65" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E65" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B66" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D66" t="s">
-        <v>61</v>
+        <v>171</v>
       </c>
       <c r="E66" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B67" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D67" t="s">
-        <v>61</v>
+        <v>172</v>
       </c>
       <c r="E67" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B68" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D68" t="s">
-        <v>61</v>
+        <v>173</v>
       </c>
       <c r="E68" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B69" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C69" t="s">
         <v>62</v>
       </c>
       <c r="D69" t="s">
-        <v>63</v>
+        <v>174</v>
       </c>
       <c r="E69" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B70" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C70" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D70" t="s">
-        <v>63</v>
+        <v>175</v>
       </c>
       <c r="E70" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B71" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C71" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D71" t="s">
-        <v>63</v>
+        <v>176</v>
       </c>
       <c r="E71" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B72" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C72" t="s">
         <v>62</v>
       </c>
       <c r="D72" t="s">
-        <v>64</v>
+        <v>177</v>
       </c>
       <c r="E72" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B73" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C73" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D73" t="s">
-        <v>64</v>
+        <v>211</v>
       </c>
       <c r="E73" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B74" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C74" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D74" t="s">
-        <v>64</v>
+        <v>212</v>
       </c>
       <c r="E74" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B75" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C75" t="s">
         <v>62</v>
       </c>
       <c r="D75" t="s">
-        <v>65</v>
+        <v>178</v>
       </c>
       <c r="E75" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B76" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C76" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D76" t="s">
-        <v>65</v>
+        <v>179</v>
       </c>
       <c r="E76" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B77" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C77" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D77" t="s">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="E77" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B78" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C78" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D78" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E78" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B79" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D79" t="s">
-        <v>67</v>
+        <v>181</v>
       </c>
       <c r="E79" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B80" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D80" t="s">
-        <v>67</v>
+        <v>182</v>
       </c>
       <c r="E80" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B81" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D81" t="s">
-        <v>67</v>
+        <v>183</v>
       </c>
       <c r="E81" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B82" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D82" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="E82" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B83" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D83" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="E83" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B84" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D84" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="E84" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B85" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D85" t="s">
-        <v>68</v>
+        <v>187</v>
       </c>
       <c r="E85" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B86" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D86" t="s">
-        <v>68</v>
+        <v>188</v>
       </c>
       <c r="E86" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B87" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D87" t="s">
-        <v>68</v>
+        <v>189</v>
       </c>
       <c r="E87" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B88" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D88" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E88" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B89" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C89" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D89" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B90" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D90" t="s">
-        <v>73</v>
+        <v>190</v>
       </c>
       <c r="E90" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B91" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D91" t="s">
-        <v>73</v>
+        <v>191</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B92" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D92" t="s">
-        <v>73</v>
+        <v>192</v>
       </c>
       <c r="E92" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B93" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D93" t="s">
-        <v>74</v>
+        <v>193</v>
       </c>
       <c r="E93" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D94" t="s">
-        <v>74</v>
+        <v>194</v>
       </c>
       <c r="E94" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B95" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D95" t="s">
-        <v>74</v>
+        <v>195</v>
       </c>
       <c r="E95" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B96" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D96" t="s">
-        <v>75</v>
+        <v>196</v>
       </c>
       <c r="E96" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B97" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D97" t="s">
-        <v>75</v>
+        <v>197</v>
       </c>
       <c r="E97" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B98" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D98" t="s">
-        <v>75</v>
+        <v>198</v>
       </c>
       <c r="E98" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B99" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D99" t="s">
-        <v>76</v>
+        <v>199</v>
       </c>
       <c r="E99" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B100" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D100" t="s">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="E100" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B101" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D101" t="s">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="E101" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B102" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D102" t="s">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="E102" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B103" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D103" t="s">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="E103" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B104" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D104" t="s">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="E104" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B105" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C105" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D105" t="s">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="E105" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B106" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C106" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D106" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E106" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B107" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C107" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D107" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E107" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B108" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C108" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D108" t="s">
-        <v>85</v>
+        <v>205</v>
       </c>
       <c r="E108" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B109" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C109" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D109" t="s">
-        <v>86</v>
+        <v>206</v>
       </c>
       <c r="E109" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B110" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C110" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D110" t="s">
-        <v>86</v>
+        <v>207</v>
       </c>
       <c r="E110" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B111" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C111" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D111" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E111" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B112" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C112" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D112" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E112" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B113" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C113" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D113" t="s">
-        <v>89</v>
+        <v>208</v>
       </c>
       <c r="E113" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B114" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C114" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D114" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="E114" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B115" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C115" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D115" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E115" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B116" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C116" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D116" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="E116" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B117" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C117" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D117" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="E117" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B118" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C118" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D118" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="E118" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B119" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C119" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D119" t="s">
-        <v>90</v>
+        <v>209</v>
       </c>
       <c r="E119" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B120" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C120" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D120" t="s">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="E120" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B121" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C121" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D121" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E121" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B122" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C122" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D122" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E122" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B123" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C123" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D123" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E123" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B124" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C124" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D124" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="E124" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B125" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C125" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D125" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E125" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B126" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C126" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D126" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E126" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B127" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C127" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D127" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E127" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B128" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C128" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D128" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E128" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B129" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C129" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="D129" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E129" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B130" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D130" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="E130" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B131" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C131" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D131" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="E131" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B132" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C132" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D132" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="E132" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B133" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C133" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D133" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="E133" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B134" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="D134" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="E134" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B135" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="D135" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="E135" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -3186,16 +3285,16 @@
         <v>16</v>
       </c>
       <c r="B136" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C136" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="D136" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="E136" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -3206,13 +3305,13 @@
         <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="D137" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="E137" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -3223,13 +3322,13 @@
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="D138" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="E138" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -3240,13 +3339,13 @@
         <v>1</v>
       </c>
       <c r="C139" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D139" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="E139" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -3257,13 +3356,13 @@
         <v>1</v>
       </c>
       <c r="C140" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="D140" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="E140" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -3274,13 +3373,13 @@
         <v>1</v>
       </c>
       <c r="C141" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D141" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E141" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -3291,13 +3390,13 @@
         <v>1</v>
       </c>
       <c r="C142" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="D142" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="E142" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -3308,13 +3407,13 @@
         <v>1</v>
       </c>
       <c r="C143" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="D143" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="E143" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -3325,72 +3424,72 @@
         <v>1</v>
       </c>
       <c r="C144" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="D144" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="E144" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B145" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D145" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="E145" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B146" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C146" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D146" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="E146" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B147" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C147" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="D147" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="E147" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D148" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="E148" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
@@ -3398,16 +3497,16 @@
         <v>0</v>
       </c>
       <c r="B149" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C149" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="D149" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="E149" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
